--- a/medicine/Enfance/Éléonore_Zuber/Éléonore_Zuber.xlsx
+++ b/medicine/Enfance/Éléonore_Zuber/Éléonore_Zuber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Zuber</t>
+          <t>Éléonore_Zuber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éléonore Zuber (née le 12 février 1978) est une auteure et illustratrice française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Zuber</t>
+          <t>Éléonore_Zuber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études  aux Arts décoratifs de Strasbourg en 2004, Eleonore se fait remarquer en auto-éditant les premiers volumes de sa série Lorsque.... Une série qu'elle republiera puis continuera aux éditions Cambourakis. Artiste, auteure et illustratrice en jeunesse et adulte.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9onore_Zuber</t>
+          <t>Éléonore_Zuber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-Lorsque..., éd. Cambourakis :
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lorsque..., éd. Cambourakis :
 Lorsque je suis amoureuse, novembre 2007 (auto-édition 2006).
 Lorsque je fais un régime, mars 2008 (auto-édition 2006).
 Lorsque je suis déprimée..., mars 2008 (auto-édition 2006).
@@ -563,9 +582,43 @@
 Maurice et Saucisse : quand Momo et Sosso font tout pareil... ou presque !, Oskar éditeur, 2016
 Magazine Georges numéro Camping, 2018
 Ma famille zombie, éd. Cambourakis   tome 2, nov 2019
-Magazine Georges numéro spécial anniversaire, février 2021
-Illustratrice
-Linda à Londres, sous la direction de Seymourina Cruse, Éd. Toucan jeunesse, 2007
+Magazine Georges numéro spécial anniversaire, février 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éléonore_Zuber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9onore_Zuber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Linda à Londres, sous la direction de Seymourina Cruse, Éd. Toucan jeunesse, 2007
 Pierrot à Paris, sous la direction de Seymourina Cruse, Toucan jeunesse, 2007
 50 bonnes résolutions, à prendre ou à laisser : pour l'année ou les dix ans à venir, textes Corinne Dreyfuss, Éd. Frimousse, 2007
 Enceinte : (Le livre bloc-notes de ma, ta, sa, notre grossesse), avec Corinne Dreyfuss, Du Toucan, 2008.
